--- a/02.画面遷移図/画面遷移図.xlsx
+++ b/02.画面遷移図/画面遷移図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\160450178\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\160450909\Documents\LDS_PJ_DOC\02.画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,6 +148,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0010</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>ログイン</a:t>
           </a:r>
@@ -161,13 +168,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>137832</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>74333</xdr:rowOff>
+      <xdr:rowOff>74332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>255306</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>26708</xdr:rowOff>
+      <xdr:rowOff>149086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -176,8 +183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1818714" y="2763745"/>
-          <a:ext cx="1798357" cy="624728"/>
+          <a:off x="1810919" y="2658506"/>
+          <a:ext cx="1790561" cy="720797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -205,6 +212,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0080</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>ログアウト</a:t>
           </a:r>
@@ -217,8 +231,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>369606</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55283</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -233,8 +247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3731371" y="279401"/>
-          <a:ext cx="1795183" cy="624728"/>
+          <a:off x="3715780" y="182217"/>
+          <a:ext cx="1787388" cy="686832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,6 +273,13 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0020</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -319,6 +340,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0030</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>コンパ一覧</a:t>
           </a:r>
@@ -332,7 +360,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>560106</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>121958</xdr:rowOff>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -347,8 +375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124077" y="121958"/>
-          <a:ext cx="1794249" cy="624728"/>
+          <a:off x="8088997" y="66261"/>
+          <a:ext cx="1786454" cy="654115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -373,6 +401,13 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0040</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -433,6 +468,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0060</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>コンパ詳細</a:t>
           </a:r>
@@ -454,13 +496,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>560106</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>673473</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33058</xdr:rowOff>
+      <xdr:rowOff>33059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -469,8 +511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124077" y="977154"/>
-          <a:ext cx="1794249" cy="624728"/>
+          <a:off x="8088997" y="861392"/>
+          <a:ext cx="1786454" cy="679102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -498,6 +540,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0050</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>コンパ作成</a:t>
           </a:r>
@@ -519,7 +568,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>560106</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>222251</xdr:rowOff>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -534,8 +583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124077" y="2687545"/>
-          <a:ext cx="1794249" cy="619685"/>
+          <a:off x="8088997" y="2509630"/>
+          <a:ext cx="1786454" cy="674823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -563,6 +612,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LDS0070</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>金額計算</a:t>
           </a:r>
@@ -595,7 +651,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>426757</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>107670</xdr:rowOff>
+      <xdr:rowOff>108604</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -607,8 +663,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3617071" y="904129"/>
-          <a:ext cx="1011892" cy="772365"/>
+          <a:off x="3601480" y="869049"/>
+          <a:ext cx="1007994" cy="746990"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -637,9 +693,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198156</xdr:colOff>
+      <xdr:colOff>196570</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>141007</xdr:rowOff>
+      <xdr:rowOff>94936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -657,8 +713,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2719480" y="589242"/>
-          <a:ext cx="1011891" cy="777408"/>
+          <a:off x="2706200" y="525632"/>
+          <a:ext cx="1009580" cy="788399"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -739,7 +795,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>582771</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>205819</xdr:rowOff>
+      <xdr:rowOff>177971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -757,8 +813,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7275119" y="421167"/>
-          <a:ext cx="813878" cy="1204397"/>
+          <a:off x="7275119" y="393319"/>
+          <a:ext cx="813878" cy="1232245"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -789,7 +845,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>582771</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>164545</xdr:rowOff>
+      <xdr:rowOff>124204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -807,8 +863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7275119" y="1241284"/>
-          <a:ext cx="813878" cy="384280"/>
+          <a:off x="7275119" y="1200943"/>
+          <a:ext cx="813878" cy="424621"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -889,13 +945,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>673473</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>125133</xdr:rowOff>
+      <xdr:rowOff>126068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>686173</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83858</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -907,8 +963,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9875451" y="2063263"/>
-          <a:ext cx="12700" cy="820117"/>
+          <a:off x="9875451" y="2064198"/>
+          <a:ext cx="12700" cy="782844"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -948,7 +1004,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>560106</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>88243</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -961,7 +1017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7275119" y="1625564"/>
-          <a:ext cx="813878" cy="1262201"/>
+          <a:ext cx="813878" cy="1221478"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -993,13 +1049,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>673473</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>166408</xdr:rowOff>
+      <xdr:rowOff>124204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>686173</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>125133</xdr:rowOff>
+      <xdr:rowOff>126068</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1011,8 +1067,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9875451" y="1243147"/>
-          <a:ext cx="12700" cy="820116"/>
+          <a:off x="9875451" y="1200943"/>
+          <a:ext cx="12700" cy="863255"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1044,15 +1100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198156</xdr:colOff>
+      <xdr:colOff>196570</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>195263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198156</xdr:colOff>
+      <xdr:colOff>196570</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>74333</xdr:rowOff>
+      <xdr:rowOff>74332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1064,8 +1120,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2719480" y="1988204"/>
-          <a:ext cx="0" cy="775541"/>
+          <a:off x="2706200" y="1918046"/>
+          <a:ext cx="0" cy="740460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1554,7 +1610,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1620,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>